--- a/rmtk/vulnerability/tests/NSP/fragility_process/test_get_spo2ida_parameters.xlsx
+++ b/rmtk/vulnerability/tests/NSP/fragility_process/test_get_spo2ida_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13180" yWindow="-17920" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="5160" yWindow="-18000" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -127,8 +127,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -137,9 +139,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -487,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.2272860591299997E-2</v>
+        <v>0.104435862</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.11327843609300001</v>
+        <v>0.233993594</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.123312633118</v>
+        <v>0.89770978700000004</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -511,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.29044840199999999</v>
+        <v>0.94027882799999996</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -519,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2133.2600000000002</v>
+        <v>2093.9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -527,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2133.2600000000002</v>
+        <v>2093.9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -535,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>939.91322822300003</v>
+        <v>91.434464939999998</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -549,7 +553,7 @@
       </c>
       <c r="B10">
         <f>B3/$B$2</f>
-        <v>2.6796964886808103</v>
+        <v>2.240548308970725</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -558,7 +562,7 @@
       </c>
       <c r="B11">
         <f>B4/$B$2</f>
-        <v>2.9170638417448016</v>
+        <v>8.5958000423264576</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -567,7 +571,7 @@
       </c>
       <c r="B12">
         <f>B5/$B$2</f>
-        <v>6.870800743959494</v>
+        <v>9.0034094610144546</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -585,7 +589,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.44059947133635841</v>
+        <v>4.366706382348727E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -599,7 +603,7 @@
       </c>
       <c r="B16" s="1">
         <f>B10</f>
-        <v>2.6796964886808103</v>
+        <v>2.240548308970725</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -617,7 +621,7 @@
       </c>
       <c r="B18" s="1">
         <f>(B13-B14)/(B11-B10)</f>
-        <v>2.3566868882463137</v>
+        <v>0.15047915901697018</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -626,7 +630,7 @@
       </c>
       <c r="B19" s="1">
         <f>B14</f>
-        <v>0.44059947133635841</v>
+        <v>4.366706382348727E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -635,7 +639,7 @@
       </c>
       <c r="B20" s="1">
         <f>B12</f>
-        <v>6.870800743959494</v>
+        <v>9.0034094610144546</v>
       </c>
     </row>
   </sheetData>
